--- a/Fayaz_Vtiger_Pages_Webelements.xlsx
+++ b/Fayaz_Vtiger_Pages_Webelements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Sr No.</t>
   </si>
@@ -39,13 +39,49 @@
     <t>Contacts</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>To enter Last name of contact</t>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Export Contacts</t>
+  </si>
+  <si>
+    <t>Import Contacts</t>
+  </si>
+  <si>
+    <t>Calender module 1 Scenario</t>
+  </si>
+  <si>
+    <t>Bithdate</t>
+  </si>
+  <si>
+    <t>Support Start Date</t>
+  </si>
+  <si>
+    <t>Support End Date</t>
+  </si>
+  <si>
+    <t>Copy Other Address</t>
+  </si>
+  <si>
+    <t>Copy Mailing Address</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>CreatingNewContact</t>
+  </si>
+  <si>
+    <t>ImportContacts</t>
+  </si>
+  <si>
+    <t>ExportContacts</t>
+  </si>
+  <si>
+    <t>ContactInformation</t>
   </si>
 </sst>
 </file>
@@ -102,10 +138,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,22 +469,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,181 +493,231 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
